--- a/excel_files/16.3.1.xlsx
+++ b/excel_files/16.3.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>(пайыз менен)</t>
   </si>
@@ -53,15 +53,6 @@
     <t xml:space="preserve">16.3.1 Доля жертв насилия, которые в последние 12 месяцев подали соответствующую жалобу в компетентные органы или другие официально признанные механизмы урегулирования конфликтов </t>
   </si>
   <si>
-    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
-  </si>
-  <si>
-    <t>По данным кластерного обследования по многим показателям, 2018г.</t>
-  </si>
-  <si>
-    <t>According to the cluster survey in many respects, 2018.</t>
-  </si>
-  <si>
     <t>16.3.1 Proportion of victims of violence in the previous 12 months who reported their victimization to competent authorities or other officially recognized conflict resolution mechanisms</t>
   </si>
   <si>
@@ -96,13 +87,25 @@
   </si>
   <si>
     <t>Акыркы 12 ай ичинде карактоо жана/же кол салуу түрүндөгү физикалык зомбулуктун курмандыгы болгон жана акыркы карактоо жана/же кол салуу жөнүндө  полицияга маалымдаган 15-49 жаштагы аялдардын үлүшү</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж., 2023-ж.</t>
+  </si>
+  <si>
+    <t>По данным кластерного обследования по многим показателям, 2018г., 2023г.</t>
+  </si>
+  <si>
+    <t>According to the cluster survey in many respects, 2018, 2023.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +200,16 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="9"/>
       <color theme="1"/>
@@ -204,6 +217,7 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -274,7 +288,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -329,11 +343,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -620,7 +642,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,18 +653,18 @@
     <col min="3" max="3" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -653,12 +675,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -671,10 +693,13 @@
       <c r="D4" s="3">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>6</v>
@@ -685,56 +710,66 @@
       <c r="D5" s="21">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="D7" s="13">
         <v>38.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="16">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4"/>
     </row>
